--- a/file/static/统计模板.xlsx
+++ b/file/static/统计模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zh\PycharmProjects\realOne\file\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9C06EE-7159-4A21-B2D9-4FD6DE9F24B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF97F929-A296-4E69-85C3-547EC7A08ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
+    <workbookView xWindow="1656" yWindow="1572" windowWidth="19104" windowHeight="10788" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
   </bookViews>
   <sheets>
     <sheet name="统计结果" sheetId="4" r:id="rId1"/>
@@ -426,14 +426,14 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -842,7 +842,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -855,7 +855,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2"/>
@@ -865,7 +865,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2"/>
@@ -875,7 +875,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="2"/>
@@ -885,7 +885,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="25" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="2"/>
@@ -895,7 +895,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2"/>
@@ -905,7 +905,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2"/>
@@ -915,7 +915,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="8"/>
@@ -927,7 +927,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="8"/>
@@ -939,7 +939,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="8"/>
@@ -963,7 +963,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="26" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="8"/>
@@ -1016,7 +1016,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -1037,7 +1037,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="10" t="s">
         <v>43</v>
       </c>
@@ -1054,7 +1054,7 @@
       <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="10" t="s">
         <v>46</v>
       </c>
@@ -1071,7 +1071,7 @@
       <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="10" t="s">
         <v>49</v>
       </c>
